--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_Qmaps.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_Qmaps.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>CS</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.180629</t>
   </si>
 </sst>
 </file>
@@ -652,9 +655,24 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -674,21 +692,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -997,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E15" activeCellId="1" sqref="C7:C8 E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1030,43 +1033,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1111,58 +1114,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -1187,23 +1190,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1213,7 +1216,9 @@
       <c r="B6" s="37">
         <v>44383</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44385</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>65</v>
       </c>
@@ -1225,9 +1230,15 @@
         <v>66</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>76</v>
+      </c>
       <c r="L6" s="40" t="s">
         <v>72</v>
       </c>
@@ -1251,7 +1262,7 @@
         <v>75</v>
       </c>
       <c r="T6" s="54"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1266,7 +1277,9 @@
       <c r="B7" s="37">
         <v>44383</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44385</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>65</v>
       </c>
@@ -1281,7 +1294,9 @@
       <c r="I7" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="K7" s="52" t="s">
         <v>71</v>
       </c>
@@ -1308,7 +1323,7 @@
         <v>75</v>
       </c>
       <c r="T7" s="54"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1321,7 +1336,9 @@
       <c r="B8" s="37">
         <v>44383</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44385</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>65</v>
       </c>
@@ -1363,7 +1380,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1392,7 +1409,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1421,7 +1438,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1450,7 +1467,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1479,7 +1496,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1510,7 +1527,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1539,7 +1556,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1568,7 +1585,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1597,7 +1614,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2828,13 +2845,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2846,6 +2856,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2889,43 +2906,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2970,58 +2987,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -3046,23 +3063,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3088,7 +3105,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3119,7 +3136,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3148,7 +3165,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3177,7 +3194,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3206,7 +3223,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3235,7 +3252,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3264,7 +3281,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3295,7 +3312,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3324,7 +3341,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3353,7 +3370,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3382,7 +3399,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4613,13 +4630,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4631,6 +4641,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_Qmaps.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_Qmaps.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang7\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang7\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
   <si>
     <t>STT</t>
   </si>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>W.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
   </si>
 </sst>
 </file>
@@ -1000,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E15" activeCellId="1" sqref="C7:C8 E15"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1390,23 +1402,49 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="37">
+        <v>44400</v>
+      </c>
       <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="D9" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868926033942951</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
       <c r="U9" s="65"/>
@@ -1419,23 +1457,49 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="37">
+        <v>44400</v>
+      </c>
       <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="D10" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868926033920494</v>
+      </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="I10" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
       <c r="U10" s="65"/>
@@ -1797,7 +1861,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2074,7 +2138,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2202,7 +2266,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2266,7 +2330,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W37" s="14"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_Qmaps.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_Qmaps.xlsx
@@ -667,6 +667,30 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,31 +703,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1045,43 +1045,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1126,58 +1126,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -1202,23 +1202,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
         <v>75</v>
       </c>
       <c r="T6" s="54"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1335,7 +1335,7 @@
         <v>75</v>
       </c>
       <c r="T7" s="54"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1405,7 +1405,9 @@
       <c r="B9" s="37">
         <v>44400</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44403</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>65</v>
       </c>
@@ -1447,7 +1449,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1460,7 +1462,9 @@
       <c r="B10" s="37">
         <v>44400</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44403</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>65</v>
       </c>
@@ -1502,7 +1506,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1531,7 +1535,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1560,7 +1564,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1591,7 +1595,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1620,7 +1624,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1649,7 +1653,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1678,7 +1682,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2909,6 +2913,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2920,13 +2931,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2970,43 +2974,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3051,58 +3055,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -3127,23 +3131,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3169,7 +3173,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3200,7 +3204,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3229,7 +3233,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3258,7 +3262,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3287,7 +3291,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3316,7 +3320,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3345,7 +3349,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3376,7 +3380,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3405,7 +3409,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3434,7 +3438,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3463,7 +3467,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4694,6 +4698,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4705,13 +4716,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_Qmaps.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_Qmaps.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="34" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="81">
   <si>
     <t>STT</t>
   </si>
@@ -667,9 +667,24 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -689,21 +704,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1045,43 +1045,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1126,58 +1126,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -1202,23 +1202,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
         <v>75</v>
       </c>
       <c r="T6" s="54"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1335,7 +1335,7 @@
         <v>75</v>
       </c>
       <c r="T7" s="54"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1535,7 +1535,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1564,7 +1564,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1595,7 +1595,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1624,7 +1624,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2913,13 +2913,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2931,6 +2924,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2941,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2974,43 +2974,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3055,58 +3055,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -3131,49 +3131,79 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="56">
+        <v>869627031814973</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T6" s="43"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3185,26 +3215,56 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="56">
+        <v>868926033922144</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="I7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T7" s="43"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3214,26 +3274,54 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="56">
+        <v>868926033939403</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="I8" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>70</v>
+      </c>
       <c r="N8" s="51"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3243,26 +3331,54 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="37">
+        <v>44400</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44403</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868926033942951</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3272,26 +3388,54 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37">
+        <v>44400</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44403</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868926033920494</v>
+      </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="I10" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3320,7 +3464,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3349,7 +3493,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3380,7 +3524,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3409,7 +3553,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3438,7 +3582,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3467,7 +3611,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3618,7 +3762,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3650,7 +3794,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3927,7 +4071,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4055,7 +4199,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4119,7 +4263,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4698,13 +4842,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4716,6 +4853,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
